--- a/data/raw/reviewer1/s2_blind_reviewer1.xlsx
+++ b/data/raw/reviewer1/s2_blind_reviewer1.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="596">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">Framework for rational donor selection in fecal microbiota transplant clinical trials</t>
   </si>
   <si>
-    <t xml:space="preserve">Code to reproduce all of these analyses and figures can be found at https://github.com/cduvallet/donor-selection/. Data were downloaded from original sources as described in the Methods section. https://github.com/cduvallet/donor-selection/</t>
+    <t xml:space="preserve">Code to reproduce all of these analyses and figures can be found at https://github.com/cduvallet/donor-selection/. Data were downloaded from original sources as described in the Methods section.   https://github.com/cduvallet/donor-selection/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19000307v2.full.pdf</t>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">Pain Reduction by Inducing Sensory-Motor Adaptation in Complex Regional Pain Syndrome (CRPS PRISMA): Protocol for a Double-blind Randomized Controlled Trial</t>
   </si>
   <si>
-    <t xml:space="preserve">There is no data associated with the current paper, which describes a protocol for a clinical trial that is in progress at the time of submission. All investigators will have access to the final dataset. Anonymised participant-level data from the trial will be stored using the Open Science Framework repository and access will be granted upon request. Access shall be requested by contacting the corresponding author via email. Description of the data and specific instructions for gaining access will be listed in a publicly-available format in the repository. The data will be made available in this format at the time that the paper describing the trial outcome is published, upon MH&lt;U+0092&gt;s graduation from her PhD, or two years after the end of data collection (whichever comes first). </t>
+    <t xml:space="preserve">There is no data associated with the current paper, which describes a protocol for a clinical trial that is in progress at the time of submission. All investigators will have access to the final dataset. Anonymised participant-level data from the trial will be stored using the Open Science Framework repository and access will be granted upon request. Access shall be requested by contacting the corresponding author via email. Description of the data and specific instructions for gaining access will be listed in a publicly-available format in the repository. The data will be made available in this format at the time that the paper describing the trial outcome is published, upon MH&lt;U+0092&gt;s graduation from her PhD, or two years after the end of data collection (whichever comes first).</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19000653v2.full.pdf</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">Intermittent Lactobacilli-containing Vaginal Probiotic or Metronidazole Use to Prevent Bacterial Vaginosis Recurrence: Safety and Preliminary Efficacy by Microscopy and Sequencing</t>
   </si>
   <si>
-    <t xml:space="preserve">All data will be made available via the University of Liverpool Data Research Catalogue (https://datacat.liverpool.ac.uk/) with publication of the manuscript in a peer-reviewed journal. We prefer to do this after peer-review because the peer-review may result in additional analyses. The most essential data are included in the manuscript and in Supplements 1 and 2. </t>
+    <t xml:space="preserve">All data will be made available via the University of Liverpool Data Research Catalogue (https://datacat.liverpool.ac.uk/) with publication of the manuscript in a peer-reviewed journal. We prefer to do this after peer-review because the peer-review may result in additional analyses. The most essential data are included in the manuscript and in Supplements 1 and 2.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19001156v1.full.pdf</t>
@@ -137,7 +137,7 @@
     <t xml:space="preserve">Predicting Residual Function in Hemodialysis and Hemodiafiltration : A Population Kinetic, Decision Analytic Approach</t>
   </si>
   <si>
-    <t xml:space="preserve">All data and software code used in this paper are available from bitbucket https://bitbucket.org/chrisarg/pk-rrf/src/master/</t>
+    <t xml:space="preserve">All data and software code used in this paper are available from bitbucket   https://bitbucket.org/chrisarg/pk-rrf/src/master/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19001222v2.full.pdf</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">The global scientific research response to the public health emergency of Zika virus infection</t>
   </si>
   <si>
-    <t xml:space="preserve">All data are fully available without restriction.</t>
+    <t xml:space="preserve">All data are fully available without restriction. All relevant data are within the manuscript and its Supporting Information files.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19001313v1.full.pdf</t>
@@ -173,7 +173,7 @@
     <t xml:space="preserve">Cluster analysis successfully identifies clinically meaningful knee valgus moment patterns: Frequency of early peaks reflects sex-specific ACL injury incidence</t>
   </si>
   <si>
-    <t xml:space="preserve">A number of decisions have to be made by the authors during data processing and analysis. The field of cluster analysis has not reached consensus on how to select many important parameters during the cluster analysis process, including the number of clusters. In order to facilitate replication and auditing of the results presented, a data set that can be used to replicate the cluster analysis will be uploaded at datadryad.org should the manuscript be accepted. The data set includes the R code used to perform the cluster analysis. The data is uploaded as additional documents for submission in JEO. </t>
+    <t xml:space="preserve">A number of decisions have to be made by the authors during data processing and analysis. The field of cluster analysis has not reached consensus on how to select many important parameters during the cluster analysis process, including the number of clusters. In order to facilitate replication and auditing of the results presented, a data set that can be used to replicate the cluster analysis will be uploaded at datadryad.org should the manuscript be accepted. The data set includes the R code used to perform the cluster analysis. The data is uploaded as additional documents for submission in JEO.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19001511v1.full.pdf</t>
@@ -218,7 +218,7 @@
     <t xml:space="preserve">Early clinical markers of aggressive multiple sclerosis</t>
   </si>
   <si>
-    <t xml:space="preserve">Data were obtained from the international MSBase cohort study. Information regarding data availability can be obtained at https://www.msbase.org/. https://www.msbase.org/</t>
+    <t xml:space="preserve">Data were obtained from the international MSBase cohort study. Information regarding data availability can be obtained at https://www.msbase.org/.   https://www.msbase.org/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19002063v1.full.pdf</t>
@@ -254,7 +254,7 @@
     <t xml:space="preserve">Use of undetectable viral load to improve survey estimates of known HIV-positive status and antiretroviral treatment coverage</t>
   </si>
   <si>
-    <t xml:space="preserve">Data for KAIS 2012 are available upon request from NASCOP by emailing head@nascop.or.ke, or from the Kenya National Bureau of Statistics by requesting at </t>
+    <t xml:space="preserve">Data for KAIS 2012 are available upon request from NASCOP by emailing head@nascop.or.ke, or from the Kenya National Bureau of Statistics by requesting at  http://statistics.knbs.or.ke/nada/index.php</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19002592v2.full.pdf</t>
@@ -299,7 +299,7 @@
     <t xml:space="preserve">Distinct psychopathology profiles in patients with epileptic seizures compared to non-epileptic psychogenic seizures</t>
   </si>
   <si>
-    <t xml:space="preserve">Data available at https://doi.org/10.17605/OSF.IO/GQRYT. https://doi.org/10.17605/OSF.IO/GQRYT</t>
+    <t xml:space="preserve">Data available at https://doi.org/10.17605/OSF.IO/GQRYT.   https://doi.org/10.17605/OSF.IO/GQRYT</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19003038v2.full.pdf</t>
@@ -362,7 +362,7 @@
     <t xml:space="preserve">Associations of childcare type, age at start, and intensity with body mass index trajectories from 10 to 42 years of age in the 1970 British Cohort Study</t>
   </si>
   <si>
-    <t xml:space="preserve">Source data are available from the UK Data Archive https://www.data-archive.ac.uk/</t>
+    <t xml:space="preserve">Source data are available from the UK Data Archive   https://www.data-archive.ac.uk/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19003772v1.full.pdf</t>
@@ -389,7 +389,7 @@
     <t xml:space="preserve">Time to death and its Predictors among Adult TB/HIV Co-Infected Patients in Mizan Tepi University Teaching Hospital, South West Ethiopia</t>
   </si>
   <si>
-    <t xml:space="preserve">All data are available from corresponding author for any reasonable requests. https://mail.google.com/wonde1983.ww@gmail.com</t>
+    <t xml:space="preserve">All data are available from corresponding author for any reasonable requests.   https://mail.google.com/wonde1983.ww@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19004234v1.full.pdf</t>
@@ -458,7 +458,7 @@
     <t xml:space="preserve">Measuring stroke outcomes using linked administrative data: Population-based estimates and validation of home-time as a surrogate measure of functional status.</t>
   </si>
   <si>
-    <t xml:space="preserve">Data analysed as part of this study are third-party owned. Signed agreements between the researchers and data custodians preclude sharing of individual level data in adherence to ethical and legal restrictions that apply to the use of these data-sets. Requests to access these third-party owned data-sets by qualified researchers can be directed to the Centre for Health Record Linkage (www.cherel.org.au). Requests for the programming code can be directed to the corresponding author. </t>
+    <t xml:space="preserve">Data analysed as part of this study are third-party owned. Signed agreements between the researchers and data custodians preclude sharing of individual level data in adherence to ethical and legal restrictions that apply to the use of these data-sets. Requests to access these third-party owned data-sets by qualified researchers can be directed to the Centre for Health Record Linkage (www.cherel.org.au). Requests for the programming code can be directed to the corresponding author.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19005082v1.full.pdf</t>
@@ -467,7 +467,7 @@
     <t xml:space="preserve">Systematic Review and Meta-Analysis of the Associations Between Body Mass Index, Prostate Cancer, Advanced Prostate Cancer and Prostate Specific Antigen</t>
   </si>
   <si>
-    <t xml:space="preserve">All summary data used is available on Github, linked in the paper https://github.com/sean-harrison-bristol/BMI-PCa-PSA-meta-analysis</t>
+    <t xml:space="preserve">All summary data used is available on Github, linked in the paper   https://github.com/sean-harrison-bristol/BMI-PCa-PSA-meta-analysis</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19005421v1.full.pdf</t>
@@ -503,7 +503,7 @@
     <t xml:space="preserve">Checklists to Detect Potential Predatory Biomedical Journals: A Systematic Review</t>
   </si>
   <si>
-    <t xml:space="preserve">The study protocol, detailed search methods, data extraction and risk of bias methods are available on the Open Science Framework. http://osf.io/g57tf</t>
+    <t xml:space="preserve">The study protocol, detailed search methods, data extraction and risk of bias methods are available on the Open Science Framework.   http://osf.io/g57tf</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19005728v1.full.pdf</t>
@@ -521,7 +521,7 @@
     <t xml:space="preserve">Calibration of individual-based models to epidemiological data: a systematic review</t>
   </si>
   <si>
-    <t xml:space="preserve">Data is available on data Dryad: https://doi.org/10.5061/dryad.8sf7m0cj6 https://doi.org/10.5061/dryad.8sf7m0cj6</t>
+    <t xml:space="preserve">Data is available on data Dryad: https://doi.org/10.5061/dryad.8sf7m0cj6   https://doi.org/10.5061/dryad.8sf7m0cj6</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19006056v3.full.pdf</t>
@@ -530,7 +530,7 @@
     <t xml:space="preserve">Data-driven discovery of changes in clinical code usage over time: a case-study on changes in cardiovascular disease recording in two English electronic health records databases (2001-2015)</t>
   </si>
   <si>
-    <t xml:space="preserve">CPRD data cannot be directly shared by the researchers but are available directly from CPRD subject to standard conditions. [HES data sharing disclaimer]. All statistical code is available from https://github.com/prockenschaub/CPRD_variability. https://github.com/prockenschaub/CPRD_variability</t>
+    <t xml:space="preserve">CPRD data cannot be directly shared by the researchers but are available directly from CPRD subject to standard conditions. [HES data sharing disclaimer]. All statistical code is available from https://github.com/prockenschaub/CPRD_variability.    https://github.com/prockenschaub/CPRD_variability</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19006098v1.full.pdf</t>
@@ -539,7 +539,7 @@
     <t xml:space="preserve">Rise and Regional Disparities in Buprenorphine Utilization in the United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Original data is available online. https://www.deadiversion.usdoj.gov/arcos/retail_drug_summary/index.html https://www.medicaid.gov/medicaid/prescription-drugs/state-drug-utilization-data/index.html</t>
+    <t xml:space="preserve">Original data is available online.   https://www.deadiversion.usdoj.gov/arcos/retail_drug_summary/index.html   https://www.medicaid.gov/medicaid/prescription-drugs/state-drug-utilization-data/index.html</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19006163v1.full.pdf</t>
@@ -566,7 +566,7 @@
     <t xml:space="preserve">Village-scale persistence and elimination of gambiense human African trypanosomiasis</t>
   </si>
   <si>
-    <t xml:space="preserve">Epidemiological data for the study were provided by the WHO in the frame of the Atlas of gHAT which may be viewed at www.who.int/trypanosomiasis_african/country/risk_AFRO/en and may be requested through Jose Ramon Franco (francoj@who.int). http://www.who.int/trypanosomiasis_african/country/risk_AFRO/en</t>
+    <t xml:space="preserve">Epidemiological data for the study were provided by the WHO in the frame of the Atlas of gHAT which may be viewed at www.who.int/trypanosomiasis_african/country/risk_AFRO/en and may be requested through Jose Ramon Franco (francoj@who.int).   http://www.who.int/trypanosomiasis_african/country/risk_AFRO/en</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19006502v1.full.pdf</t>
@@ -584,7 +584,7 @@
     <t xml:space="preserve">Using Hierarchical Clustering to Explore Patterns of Deprivation Among English Local Authorities</t>
   </si>
   <si>
-    <t xml:space="preserve">The manuscript is based entirely on publicly available data. https://github.com/stevenlsenior/IMD_clustering</t>
+    <t xml:space="preserve">The manuscript is based entirely on publicly available data.   https://github.com/stevenlsenior/IMD_clustering</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19006957v2.full.pdf</t>
@@ -611,7 +611,7 @@
     <t xml:space="preserve">A polygenic predictor of treatment-resistant depression using whole exome sequencing and genome-wide genotyping</t>
   </si>
   <si>
-    <t xml:space="preserve">Individual-level data or summary statistics is not publicly available for GSRD and GENDEP, however raw genotypes and phenotypes of these samples are available to Psychiatric Genomic Consortium (PGC) analysts (https://www.med.unc.edu/pgc/) within approved projects. Individual-level data is publicly available for STAR*D through the NIMH genetics website (https://www.nimhgenetics.org), after submission of a research project and access authorization.  https://www.nimhgenetics.org</t>
+    <t xml:space="preserve">Individual-level data or summary statistics is not publicly available for GSRD and GENDEP, however raw genotypes and phenotypes of these samples are available to Psychiatric Genomic Consortium (PGC) analysts (https://www.med.unc.edu/pgc/) within approved projects. Individual-level data is publicly available for STAR*D through the NIMH genetics website (https://www.nimhgenetics.org), after submission of a research project and access authorization.    https://www.nimhgenetics.org</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19007161v1.full.pdf</t>
@@ -656,7 +656,7 @@
     <t xml:space="preserve">Tumor Necrosis Factor (TNF) Blocking Agents are Associated with Lower Risk for Alzheimer's Disease in Patients with Rheumatoid Arthritis and Psoriasis</t>
   </si>
   <si>
-    <t xml:space="preserve">The data underlying the results presented in the study are available from  http://nlp.case.edu/public/data/TNF-AD/ http://nlp.case.edu/public/data/TNF-AD/</t>
+    <t xml:space="preserve">The data underlying the results presented in the study are available from  http://nlp.case.edu/public/data/TNF-AD/   http://nlp.case.edu/public/data/TNF-AD/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19007666v2.full.pdf</t>
@@ -674,7 +674,7 @@
     <t xml:space="preserve">MicroRNA-mRNA networks define translatable molecular outcome phenotypes in osteosarcoma.</t>
   </si>
   <si>
-    <t xml:space="preserve">The independent NCI TARGET datasets are available through the data matrix at https://ocg.cancer.gov/programs/target/data-matrix . https://ocg.cancer.gov/programs/target/data-matrix</t>
+    <t xml:space="preserve">The independent NCI TARGET datasets are available through the data matrix at https://ocg.cancer.gov/programs/target/data-matrix .   https://ocg.cancer.gov/programs/target/data-matrix</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19007740v1.full.pdf</t>
@@ -725,7 +725,7 @@
     <t xml:space="preserve">Targeting the centromedian thalamic nucleus for deep brain stimulation</t>
   </si>
   <si>
-    <t xml:space="preserve"> Data are available on reasonable request.</t>
+    <t xml:space="preserve">Data are available on reasonable request.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19008136v1.full.pdf</t>
@@ -761,7 +761,7 @@
     <t xml:space="preserve">Genetic determinants of trehalose utilization are not associated with severe Clostridium difficile infection</t>
   </si>
   <si>
-    <t xml:space="preserve">Data are available both in the supplement and in the github repository: https://github.com/katiesaund/clinical_cdifficile_trehalose_variants https://github.com/katiesaund/clinical_cdifficile_trehalose_variants</t>
+    <t xml:space="preserve">Data are available both in the supplement and in the github repository: https://github.com/katiesaund/clinical_cdifficile_trehalose_variants   https://github.com/katiesaund/clinical_cdifficile_trehalose_variants</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19008342v1.full.pdf</t>
@@ -791,7 +791,7 @@
     <t xml:space="preserve">Bringing Critical Race Praxis into the Study of Electrophysiological Substrate of Sudden Cardiac Death: The Atherosclerosis Risk in Communities (ARIC) Study</t>
   </si>
   <si>
-    <t xml:space="preserve">The ARIC Study data are available through the National Heart, Lung, and Blood Institute&lt;U+0092&gt;s Biological Specimen and Data Repository Information Coordinating Center (BioLINCC) and the National Center of Biotechnology Information&lt;U+0092&gt;s database of Genotypes and Phenotypes (dbGaP). The MATLAB (MathWorks, Natick, MA, USA) open-source software code for GEH measurement and the heart vector origin definition is provided at https://physionet.org/physiotools/geh and https://github.com/Tereshchenkolab/Origin. https://physionet.org/physiotools/geh https://github.com/Tereshchenkolab/Origin</t>
+    <t xml:space="preserve">The ARIC Study data are available through the National Heart, Lung, and Blood Institute&lt;U+0092&gt;s Biological Specimen and Data Repository Information Coordinating Center (BioLINCC) and the National Center of Biotechnology Information&lt;U+0092&gt;s database of Genotypes and Phenotypes (dbGaP). The MATLAB (MathWorks, Natick, MA, USA) open-source software code for GEH measurement and the heart vector origin definition is provided at https://physionet.org/physiotools/geh and https://github.com/Tereshchenkolab/Origin.   https://physionet.org/physiotools/geh   https://github.com/Tereshchenkolab/Origin</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19009167v1.full.pdf</t>
@@ -800,7 +800,7 @@
     <t xml:space="preserve">Eligibility for Subcutaneous Implantable Cardioverter Defibrillator in Congenital Heart Disease</t>
   </si>
   <si>
-    <t xml:space="preserve">A MATLAB (MathWorks, Inc, Natick, MA) open-source code for ECG analyses and a user manual is provided at https://github.com/Tereshchenkolab/S-ICD_eligibility. Fully de-identified raw digital ECG signal data generated for this study are available at https://github.com/Tereshchenkolab/S-ICD_eligibility.  All calculators are freely available at www.ecgpredictscd.org.  https://github.com/Tereshchenkolab/S-ICD_eligibility http://www.ecgpredictscd.org/sicd-eligibility</t>
+    <t xml:space="preserve">A MATLAB (MathWorks, Inc, Natick, MA) open-source code for ECG analyses and a user manual is provided at https://github.com/Tereshchenkolab/S-ICD_eligibility. Fully de-identified raw digital ECG signal data generated for this study are available at https://github.com/Tereshchenkolab/S-ICD_eligibility.  All calculators are freely available at www.ecgpredictscd.org.    https://github.com/Tereshchenkolab/S-ICD_eligibility   http://www.ecgpredictscd.org/sicd-eligibility</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19009175v1.full.pdf</t>
@@ -836,7 +836,7 @@
     <t xml:space="preserve">Genetic profile and functional proteomics of anal squamous cell carcinoma: proposal for a molecular classification</t>
   </si>
   <si>
-    <t xml:space="preserve">The proteomics data generated during the current study are available in Chorus repository (https://chorusproject.org/pages/index.html). The exome sequencing data are available in SRA https://www.ncbi.nlm.nih.gov/sra) under the name PRJNA573670. https://chorusproject.org/pages/index.html) https://www.ncbi.nlm.nih.gov/sra</t>
+    <t xml:space="preserve">The proteomics data generated during the current study are available in Chorus repository (https://chorusproject.org/pages/index.html). The exome sequencing data are available in SRA https://www.ncbi.nlm.nih.gov/sra) under the name PRJNA573670.   https://chorusproject.org/pages/index.html)   https://www.ncbi.nlm.nih.gov/sra</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19009522v1.full.pdf</t>
@@ -854,7 +854,7 @@
     <t xml:space="preserve">Short-term mental health sequelae of bereavement predict long-term physical health decline in older adults: US Health and Retirement Study Analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">Data are publicly available. http://hrsonline.isr.umich.edu/</t>
+    <t xml:space="preserve">Data are publicly available.   http://hrsonline.isr.umich.edu/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19009878v1.full.pdf</t>
@@ -863,9 +863,6 @@
     <t xml:space="preserve">Awareness and knowledge of interventional radiology among medical students at an Indian institution</t>
   </si>
   <si>
-    <t xml:space="preserve"> not applicable</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19010066v1.full.pdf</t>
   </si>
   <si>
@@ -890,7 +887,7 @@
     <t xml:space="preserve">Egocentric Sexual Networks of Men Who Have Sex with Men in the United States: Results from the ARTnet Study</t>
   </si>
   <si>
-    <t xml:space="preserve">Original analysis code is available and data is available with a data sharing agreement with the study Principal Investigator (Dr. Jenness) https://github.com/EpiModel/NetStats</t>
+    <t xml:space="preserve">Original analysis code is available and data is available with a data sharing agreement with the study Principal Investigator (Dr. Jenness)   https://github.com/EpiModel/NetStats</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19010579v1.full.pdf</t>
@@ -908,7 +905,7 @@
     <t xml:space="preserve">Determinants of normal haemoglobin concentration among children in Ghana: a positive deviance analysis of nationally representative cross-sectional survey data</t>
   </si>
   <si>
-    <t xml:space="preserve">This study was a re-analysis of existing data that are publicly available from The DHS Program at http://dhsprogram.com/publications/publication-fr221-dhs-final-reports.cfm. Data are accessible free of charge upon a registration with the Demographic and Health Survey program (The DHS Program).  The registration is done on the DHS website indicated above. http://dhsprogram.com/publications/publication-fr221-dhs-final-reports.cfm</t>
+    <t xml:space="preserve">This study was a re-analysis of existing data that are publicly available from The DHS Program at http://dhsprogram.com/publications/publication-fr221-dhs-final-reports.cfm. Data are accessible free of charge upon a registration with the Demographic and Health Survey program (The DHS Program).  The registration is done on the DHS website indicated above.   http://dhsprogram.com/publications/publication-fr221-dhs-final-reports.cfm</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19010769v1.full.pdf</t>
@@ -1013,7 +1010,7 @@
     <t xml:space="preserve">Cost-effectiveness of implementing objective diagnostic verification of asthma in the United States</t>
   </si>
   <si>
-    <t xml:space="preserve">This is a simulation study so there are no underlying data. One part of the study was based on data from the Medical Expenditure Panel Survey in the US. Eligible clients can apply for such data through the relevant portal. https://drive.google.com/file/d/1pd2e9qEa6nIMV9UpCPX4mI2SUTaUr9Yw/view?usp=sharing</t>
+    <t xml:space="preserve">This is a simulation study so there are no underlying data. One part of the study was based on data from the Medical Expenditure Panel Survey in the US. Eligible clients can apply for such data through the relevant portal.   https://drive.google.com/file/d/1pd2e9qEa6nIMV9UpCPX4mI2SUTaUr9Yw/view?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19012435v1.full.pdf</t>
@@ -1040,7 +1037,7 @@
     <t xml:space="preserve">Algorithmic discovery of dynamic models from infectious disease data</t>
   </si>
   <si>
-    <t xml:space="preserve">The code used to generate the results is publicly available on Github.  The infectious disease data for measles, rubella and chickenpox can be obtained from the International Infectious Disease Data Archive.  https://github.com/jonathanhorrocks/SINDy-data http://iidda.mcmaster.ca/</t>
+    <t xml:space="preserve">The code used to generate the results is publicly available on Github.  The infectious disease data for measles, rubella and chickenpox can be obtained from the International Infectious Disease Data Archive.     https://github.com/jonathanhorrocks/SINDy-data   http://iidda.mcmaster.ca/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19012724v2.full.pdf</t>
@@ -1049,7 +1046,7 @@
     <t xml:space="preserve">Influenza-associated mortality for circulatory and respiratory causes during the 2013-2014 through the 2018-2019 influenza seasons in Russia</t>
   </si>
   <si>
-    <t xml:space="preserve">The manuscript is based on aggregate, publicly available data  https://www.influenza.spb.ru/system/epidemic_situation/situation_on_a_flu/ https://www.influenza.spb.ru/system/epidemic_situation/laboratory_diagnostics/</t>
+    <t xml:space="preserve">The manuscript is based on aggregate, publicly available data  https://www.influenza.spb.ru/system/epidemic_situation/situation_on_a_flu/ https://www.influenza.spb.ru/system/epidemic_situation/laboratory_diagnostics/   https://www.influenza.spb.ru/system/epidemic_situation/situation_on_a_flu/   https://www.influenza.spb.ru/system/epidemic_situation/laboratory_diagnostics/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19012856v1.full.pdf</t>
@@ -1067,7 +1064,7 @@
     <t xml:space="preserve">PSA and VIM DBS efficiency in essential tremor depends on distance to the dentatorubrothalamic tract</t>
   </si>
   <si>
-    <t xml:space="preserve">Clinical data, stimulation parameters, lead locations, and averaged DRTTs are available via the Open Science Framework (OSF, dx.doi.org/10.17605/OSF.IO/MU827). https://dx.doi.org/10.17605/OSF.IO/MU827</t>
+    <t xml:space="preserve">Clinical data, stimulation parameters, lead locations, and averaged DRTTs are available via the Open Science Framework (OSF, dx.doi.org/10.17605/OSF.IO/MU827).   https://dx.doi.org/10.17605/OSF.IO/MU827</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/19013656v1.full.pdf</t>
@@ -1100,7 +1097,7 @@
     <t xml:space="preserve">A brief report: de novo copy number variants in children with attention deficit hyperactivity disorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Genetic data are available via the PGC ADHD consortium. https://www.med.unc.edu/pgc/results-and-downloads/adhd/?choice=Attention+Deficit+Hyperactivity+Disorder+%28ADHD%29</t>
+    <t xml:space="preserve">Genetic data are available via the PGC ADHD consortium.   https://www.med.unc.edu/pgc/results-and-downloads/adhd/?choice=Attention+Deficit+Hyperactivity+Disorder+%28ADHD%29</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/2019.12.12.19014555v1.full.pdf</t>
@@ -1145,7 +1142,7 @@
     <t xml:space="preserve">Evaluating the performance of the WHO international reference standard for osteoporosis diagnosis in postmenopausal women of varied polygenic score and race</t>
   </si>
   <si>
-    <t xml:space="preserve">The data/analyses presented in the current publication are based on the use of study data downloaded from the dbGaP web site, under phs000200. https://www.ncbi.nlm.nih.gov/projects/gap/cgi-bin/study.cgi?study_id=phs000200.v12.p3</t>
+    <t xml:space="preserve">The data/analyses presented in the current publication are based on the use of study data downloaded from the dbGaP web site, under phs000200.   https://www.ncbi.nlm.nih.gov/projects/gap/cgi-bin/study.cgi?study_id=phs000200.v12.p3</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/2019.12.30.19016154v1.full.pdf</t>
@@ -1154,7 +1151,7 @@
     <t xml:space="preserve">Childhood vaccination coverage and equity impact in Ethiopia by socioeconomic, geographic, maternal and child characteristics</t>
   </si>
   <si>
-    <t xml:space="preserve">The 2016 Ethiopia DHS data file (ETKR71DT.ZIP) used in this study is accessible on the DHS website (https://dhsprogram.com/data/dataset/Ethiopia_Standard-DHS_2016.cfm) and available to registered users https://dhsprogram.com/data/dataset/Ethiopia_Standard-DHS_2016.cfm</t>
+    <t xml:space="preserve">The 2016 Ethiopia DHS data file (ETKR71DT.ZIP) used in this study is accessible on the DHS website (https://dhsprogram.com/data/dataset/Ethiopia_Standard-DHS_2016.cfm) and available to registered users   https://dhsprogram.com/data/dataset/Ethiopia_Standard-DHS_2016.cfm</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/2020.01.03.20016436v1.full.pdf</t>
@@ -1235,7 +1232,7 @@
     <t xml:space="preserve">Estimation of the Time-Varying Reproduction Number of COVID-19 Outbreak in China</t>
   </si>
   <si>
-    <t xml:space="preserve">All data are collected from the website of China CDC. http://2019ncov.chinacdc.cn/2019-nCoV/</t>
+    <t xml:space="preserve">All data are collected from the website of China CDC.   http://2019ncov.chinacdc.cn/2019-nCoV/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/2020.02.08.20021253v2.full.pdf</t>
@@ -1253,7 +1250,7 @@
     <t xml:space="preserve">Data-Based Analysis, Modelling and Forecasting of the COVID-19 outbreak</t>
   </si>
   <si>
-    <t xml:space="preserve">All data referred to in the manuscript are available. https://gisanddata.maps.arcgis.com/apps/opsdashboard/index.html#/bda7594740fd40299423467b48e9ecf6</t>
+    <t xml:space="preserve">All data referred to in the manuscript are available.   https://gisanddata.maps.arcgis.com/apps/opsdashboard/index.html#/bda7594740fd40299423467b48e9ecf6</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/2020.02.11.20022186v5.full.pdf</t>
@@ -1349,7 +1346,7 @@
     <t xml:space="preserve">Modeling the Epidemic Dynamics and Control of COVID-19 Outbreak in China</t>
   </si>
   <si>
-    <t xml:space="preserve">the data is from public resources (daily released case numbers by the official agency). </t>
+    <t xml:space="preserve">the data is from public resources (daily released case numbers by the official agency).  The data is posted in the supplement.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/2020.02.27.20028639v2.full.pdf</t>
@@ -1376,7 +1373,7 @@
     <t xml:space="preserve">Electronic data capture for large scale typhoid surveillance, household contact tracing, and health utilisation survey: Strategic Typhoid Alliance across Africa and Asia.</t>
   </si>
   <si>
-    <t xml:space="preserve">The code scripts used to develop the EDC (ODK Collect eCRF and MySQL database objects), and the raw data for errors analysed in this paper are all available through GitHub. https://github.com/Oxfordvaccinegroup/Electronic-Data-Capture-for-Large-Scale-Typhoid-Surveillance---STRATAA</t>
+    <t xml:space="preserve">The code scripts used to develop the EDC (ODK Collect eCRF and MySQL database objects), and the raw data for errors analysed in this paper are all available through GitHub.   https://github.com/Oxfordvaccinegroup/Electronic-Data-Capture-for-Large-Scale-Typhoid-Surveillance---STRATAA</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/2020.03.02.20030056v1.full.pdf</t>
@@ -1394,7 +1391,7 @@
     <t xml:space="preserve">Application of combined genomic and transfer analyses to identify factors mediating regional spread of antibiotic resistant bacterial lineages</t>
   </si>
   <si>
-    <t xml:space="preserve">Illumina reads are available on the Sequence Read Archive (SRA) in BioProject PRJNA435617. https://www.ncbi.nlm.nih.gov/bioproject/?term=PRJNA435617</t>
+    <t xml:space="preserve">Illumina reads are available on the Sequence Read Archive (SRA) in BioProject PRJNA435617.   https://www.ncbi.nlm.nih.gov/bioproject/?term=PRJNA435617</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/2020.03.03.20029447v1.full.pdf</t>
@@ -1421,7 +1418,7 @@
     <t xml:space="preserve">Whole-genome DNA methylation profiling of CD14+ monocytes reveals disease status and activity differences in Crohn's disease patients</t>
   </si>
   <si>
-    <t xml:space="preserve">The DNA methylation generated in this study has been published under controlled access for research purposes at the European Genome-phenome Archive at EGAD00010001846. All bash and R scripts have been made available on GitHub and can be found at https://github.com/ND91/PRJ0000002_CDMON. https://github.com/ND91/PRJ0000002_CDMON https://ega-archive.org/datasets/EGAD00010001846</t>
+    <t xml:space="preserve">The DNA methylation generated in this study has been published under controlled access for research purposes at the European Genome-phenome Archive at EGAD00010001846. All bash and R scripts have been made available on GitHub and can be found at https://github.com/ND91/PRJ0000002_CDMON.   https://github.com/ND91/PRJ0000002_CDMON   https://ega-archive.org/datasets/EGAD00010001846</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/2020.03.09.20033043v1.full.pdf</t>
@@ -1448,7 +1445,7 @@
     <t xml:space="preserve">The time scale of asymptomatic transmission affects estimates of epidemic potential in the COVID-19 outbreak</t>
   </si>
   <si>
-    <t xml:space="preserve">All code is available at https://github.com/mac-theobio/coronavirus_asymptomatic. https://github.com/mac-theobio/coronavirus_asymptomatic.</t>
+    <t xml:space="preserve">All code is available at https://github.com/mac-theobio/coronavirus_asymptomatic.   https://github.com/mac-theobio/coronavirus_asymptomatic.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/2020.03.09.20033514v2.full.pdf</t>
@@ -1457,7 +1454,7 @@
     <t xml:space="preserve">Inferring the number of COVID-19 cases from recently reported deaths</t>
   </si>
   <si>
-    <t xml:space="preserve">Our model is implemented in a publicly-available web-application (see link provided). https://cmmid.github.io/visualisations/inferring-covid19-cases-from-deaths</t>
+    <t xml:space="preserve">Our model is implemented in a publicly-available web-application (see link provided).   https://cmmid.github.io/visualisations/inferring-covid19-cases-from-deaths</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/2020.03.10.20033761v1.full.pdf</t>
@@ -1490,7 +1487,7 @@
     <t xml:space="preserve">Using rapid online surveys to assess perceptions during infectious disease outbreaks: a cross-sectional survey on Covid-19 among the general public in the United States and United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">All data and statistical code for this study is available at: https://purl.stanford.edu/tr461wp6422 https://purl.stanford.edu/tr461wp6422</t>
+    <t xml:space="preserve">All data and statistical code for this study is available at: https://purl.stanford.edu/tr461wp6422   https://purl.stanford.edu/tr461wp6422</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/2020.03.13.20035568v2.full.pdf</t>
@@ -1514,7 +1511,7 @@
     <t xml:space="preserve">Reduced dengue incidence following deployments of Wolbachia-infected Aedes aegypti in Yogyakarta, Indonesia: a quasi-experimental trial using controlled interrupted time series analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">The entomological datasets used during the current study are available from the authors on reasonable request. The dengue case notification data and NS1 rapid diagnostic test results are available from the Yogyakarta District Health Office and individual Yogyakarta puskesmas clinics, respectively, but restrictions apply to the availability of these data, which were used under license for the current study and are not publicly available. Data may be made available by the authors upon reasonable request, with permission of Yogyakarta District Health Office. </t>
+    <t xml:space="preserve">The entomological datasets used during the current study are available from the authors on reasonable request. The dengue case notification data and NS1 rapid diagnostic test results are available from the Yogyakarta District Health Office and individual Yogyakarta puskesmas clinics, respectively, but restrictions apply to the availability of these data, which were used under license for the current study and are not publicly available. Data may be made available by the authors upon reasonable request, with permission of Yogyakarta District Health Office.</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/2020.03.15.20036566v1.full.pdf</t>
@@ -1586,7 +1583,7 @@
     <t xml:space="preserve">A framework for identifying regional outbreak and spread of COVID-19 from one-minute population-wide surveys</t>
   </si>
   <si>
-    <t xml:space="preserve">Surveys are available at http://predict-corona.org/ http://predict-corona.org/</t>
+    <t xml:space="preserve">Surveys are available at http://predict-corona.org/   http://predict-corona.org/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/2020.03.19.20038844v2.full.pdf</t>
@@ -1613,7 +1610,7 @@
     <t xml:space="preserve">Systematic review and critical appraisal of prediction models for diagnosis and prognosis of COVID-19 infection</t>
   </si>
   <si>
-    <t xml:space="preserve">Extracted data is partially reported in Tables 1-2 and Supplementary Tables 1-2. The original manuscripts are published open access (links provided in the reference list).</t>
+    <t xml:space="preserve">Extracted data is partially reported in Tables 1-2 and Supplementary Tables 1-2. The original manuscripts are published open access (links provided in the reference list).  The protocol for this systematic review was registered on OSF and publicly available(osf.io/ehc47/).</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/2020.03.24.20041020v2.full.pdf</t>
@@ -1640,7 +1637,7 @@
     <t xml:space="preserve">COVID-19 transmission in Mainland China is associated with temperature and humidity: a time-series analysis</t>
   </si>
   <si>
-    <t xml:space="preserve">Our data were collected from online or public databases. Daily counts of laboratory-confirmed cases were collected from the official reports of the National Health Commission of People&lt;U+0092&gt;s Republic of China. The meteorological data were retrieved from Weather Underground. The Baidu index were collected from Baidu (the largest search engine in China). https://www.wunderground.com/ http://index.baidu.com/ http://en.nhc.gov.cn/</t>
+    <t xml:space="preserve">Our data were collected from online or public databases. Daily counts of laboratory-confirmed cases were collected from the official reports of the National Health Commission of People&lt;U+0092&gt;s Republic of China. The meteorological data were retrieved from Weather Underground. The Baidu index were collected from Baidu (the largest search engine in China).   https://www.wunderground.com/   http://index.baidu.com/   http://en.nhc.gov.cn/</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/2020.03.30.20044099v1.full.pdf</t>
@@ -1658,7 +1655,7 @@
     <t xml:space="preserve">Genomic epidemiology of SARS-CoV-2 in Guangdong Province, China</t>
   </si>
   <si>
-    <t xml:space="preserve">All sequences data have been submitted to the public database (GISAID). https://platform.gisaid.org/epi3/frontend</t>
+    <t xml:space="preserve">All sequences data have been submitted to the public database (GISAID).   https://platform.gisaid.org/epi3/frontend</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/2020.04.01.20047076v1.full.pdf</t>
@@ -1721,7 +1718,7 @@
     <t xml:space="preserve">Meeting radiation dosimetry capacity requirements of population-scale exposures by geostatistical sampling</t>
   </si>
   <si>
-    <t xml:space="preserve">All data and materials are fully available without restriction. Data and Software from this study are available in the Zenodo repository below. This includes modified U.S. state and sub-division boundary files [in KML format], as well as the geographic coordinates and dose values (World Geodetic System [WGS] 1984) which define each HPAC and geostatistical-derived plume for all scenarios described. The programs include custom scripts used to preprocess the data for use with ArcMap GIS software. https://doi.org/10.5281/zenodo.3572574 http://dx.doi.org/10.17504/protocols.io.ba4nigve</t>
+    <t xml:space="preserve">All data and materials are fully available without restriction. Data and Software from this study are available in the Zenodo repository below. This includes modified U.S. state and sub-division boundary files [in KML format], as well as the geographic coordinates and dose values (World Geodetic System [WGS] 1984) which define each HPAC and geostatistical-derived plume for all scenarios described. The programs include custom scripts used to preprocess the data for use with ArcMap GIS software.   https://doi.org/10.5281/zenodo.3572574   http://dx.doi.org/10.17504/protocols.io.ba4nigve</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.medrxiv.org/content/10.1101/2020.04.08.20058446v1.full.pdf</t>
@@ -4029,10 +4026,10 @@
         <v>282</v>
       </c>
       <c r="C95" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="E95" t="s">
         <v>9</v>
@@ -4046,13 +4043,13 @@
         <v>760</v>
       </c>
       <c r="B96" t="s">
+        <v>284</v>
+      </c>
+      <c r="C96" t="s">
         <v>285</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="E96" t="s">
         <v>9</v>
@@ -4066,13 +4063,13 @@
         <v>743</v>
       </c>
       <c r="B97" t="s">
+        <v>287</v>
+      </c>
+      <c r="C97" t="s">
         <v>288</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>290</v>
       </c>
       <c r="E97" t="s">
         <v>9</v>
@@ -4086,13 +4083,13 @@
         <v>757</v>
       </c>
       <c r="B98" t="s">
+        <v>290</v>
+      </c>
+      <c r="C98" t="s">
         <v>291</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="E98" t="s">
         <v>9</v>
@@ -4106,13 +4103,13 @@
         <v>755</v>
       </c>
       <c r="B99" t="s">
+        <v>293</v>
+      </c>
+      <c r="C99" t="s">
         <v>294</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="E99" t="s">
         <v>9</v>
@@ -4126,13 +4123,13 @@
         <v>769</v>
       </c>
       <c r="B100" t="s">
+        <v>296</v>
+      </c>
+      <c r="C100" t="s">
         <v>297</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="E100" t="s">
         <v>9</v>
@@ -4146,13 +4143,13 @@
         <v>888</v>
       </c>
       <c r="B101" t="s">
+        <v>299</v>
+      </c>
+      <c r="C101" t="s">
         <v>300</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="E101" t="s">
         <v>9</v>
@@ -4166,13 +4163,13 @@
         <v>837</v>
       </c>
       <c r="B102" t="s">
+        <v>302</v>
+      </c>
+      <c r="C102" t="s">
         <v>303</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="E102" t="s">
         <v>9</v>
@@ -4186,13 +4183,13 @@
         <v>785</v>
       </c>
       <c r="B103" t="s">
+        <v>305</v>
+      </c>
+      <c r="C103" t="s">
         <v>306</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="E103" t="s">
         <v>9</v>
@@ -4206,13 +4203,13 @@
         <v>796</v>
       </c>
       <c r="B104" t="s">
+        <v>308</v>
+      </c>
+      <c r="C104" t="s">
         <v>309</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>311</v>
       </c>
       <c r="E104" t="s">
         <v>9</v>
@@ -4226,13 +4223,13 @@
         <v>818</v>
       </c>
       <c r="B105" t="s">
+        <v>311</v>
+      </c>
+      <c r="C105" t="s">
         <v>312</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="E105" t="s">
         <v>9</v>
@@ -4246,13 +4243,13 @@
         <v>865</v>
       </c>
       <c r="B106" t="s">
+        <v>314</v>
+      </c>
+      <c r="C106" t="s">
         <v>315</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="E106" t="s">
         <v>9</v>
@@ -4266,13 +4263,13 @@
         <v>836</v>
       </c>
       <c r="B107" t="s">
+        <v>317</v>
+      </c>
+      <c r="C107" t="s">
         <v>318</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="E107" t="s">
         <v>9</v>
@@ -4286,13 +4283,13 @@
         <v>855</v>
       </c>
       <c r="B108" t="s">
+        <v>320</v>
+      </c>
+      <c r="C108" t="s">
         <v>321</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="E108" t="s">
         <v>9</v>
@@ -4306,13 +4303,13 @@
         <v>864</v>
       </c>
       <c r="B109" t="s">
+        <v>323</v>
+      </c>
+      <c r="C109" t="s">
+        <v>312</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="C109" t="s">
-        <v>313</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>325</v>
       </c>
       <c r="E109" t="s">
         <v>9</v>
@@ -4326,13 +4323,13 @@
         <v>869</v>
       </c>
       <c r="B110" t="s">
+        <v>325</v>
+      </c>
+      <c r="C110" t="s">
         <v>326</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>328</v>
       </c>
       <c r="E110" t="s">
         <v>9</v>
@@ -4346,13 +4343,13 @@
         <v>868</v>
       </c>
       <c r="B111" t="s">
+        <v>328</v>
+      </c>
+      <c r="C111" t="s">
         <v>329</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>331</v>
       </c>
       <c r="E111" t="s">
         <v>9</v>
@@ -4366,13 +4363,13 @@
         <v>903</v>
       </c>
       <c r="B112" t="s">
+        <v>331</v>
+      </c>
+      <c r="C112" t="s">
         <v>332</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>334</v>
       </c>
       <c r="E112" t="s">
         <v>9</v>
@@ -4386,13 +4383,13 @@
         <v>892</v>
       </c>
       <c r="B113" t="s">
+        <v>334</v>
+      </c>
+      <c r="C113" t="s">
         <v>335</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="E113" t="s">
         <v>9</v>
@@ -4406,13 +4403,13 @@
         <v>900</v>
       </c>
       <c r="B114" t="s">
+        <v>337</v>
+      </c>
+      <c r="C114" t="s">
         <v>338</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>340</v>
       </c>
       <c r="E114" t="s">
         <v>9</v>
@@ -4426,13 +4423,13 @@
         <v>933</v>
       </c>
       <c r="B115" t="s">
+        <v>340</v>
+      </c>
+      <c r="C115" t="s">
         <v>341</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="E115" t="s">
         <v>9</v>
@@ -4446,13 +4443,13 @@
         <v>934</v>
       </c>
       <c r="B116" t="s">
+        <v>343</v>
+      </c>
+      <c r="C116" t="s">
         <v>344</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>346</v>
       </c>
       <c r="E116" t="s">
         <v>9</v>
@@ -4466,13 +4463,13 @@
         <v>976</v>
       </c>
       <c r="B117" t="s">
+        <v>346</v>
+      </c>
+      <c r="C117" t="s">
         <v>347</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="E117" t="s">
         <v>9</v>
@@ -4486,13 +4483,13 @@
         <v>999</v>
       </c>
       <c r="B118" t="s">
+        <v>349</v>
+      </c>
+      <c r="C118" t="s">
         <v>350</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>352</v>
       </c>
       <c r="E118" t="s">
         <v>9</v>
@@ -4506,13 +4503,13 @@
         <v>1004</v>
       </c>
       <c r="B119" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C119" t="s">
         <v>154</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E119" t="s">
         <v>9</v>
@@ -4526,13 +4523,13 @@
         <v>1041</v>
       </c>
       <c r="B120" t="s">
+        <v>354</v>
+      </c>
+      <c r="C120" t="s">
         <v>355</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>357</v>
       </c>
       <c r="E120" t="s">
         <v>9</v>
@@ -4546,13 +4543,13 @@
         <v>1026</v>
       </c>
       <c r="B121" t="s">
+        <v>357</v>
+      </c>
+      <c r="C121" t="s">
         <v>358</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>360</v>
       </c>
       <c r="E121" t="s">
         <v>9</v>
@@ -4566,13 +4563,13 @@
         <v>1055</v>
       </c>
       <c r="B122" t="s">
+        <v>360</v>
+      </c>
+      <c r="C122" t="s">
         <v>361</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>363</v>
       </c>
       <c r="E122" t="s">
         <v>9</v>
@@ -4586,13 +4583,13 @@
         <v>1074</v>
       </c>
       <c r="B123" t="s">
+        <v>363</v>
+      </c>
+      <c r="C123" t="s">
         <v>364</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>366</v>
       </c>
       <c r="E123" t="s">
         <v>9</v>
@@ -4606,13 +4603,13 @@
         <v>1076</v>
       </c>
       <c r="B124" t="s">
+        <v>366</v>
+      </c>
+      <c r="C124" t="s">
         <v>367</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="E124" t="s">
         <v>9</v>
@@ -4626,13 +4623,13 @@
         <v>1071</v>
       </c>
       <c r="B125" t="s">
+        <v>369</v>
+      </c>
+      <c r="C125" t="s">
         <v>370</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>372</v>
       </c>
       <c r="E125" t="s">
         <v>9</v>
@@ -4646,13 +4643,13 @@
         <v>1107</v>
       </c>
       <c r="B126" t="s">
+        <v>372</v>
+      </c>
+      <c r="C126" t="s">
         <v>373</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="E126" t="s">
         <v>9</v>
@@ -4666,13 +4663,13 @@
         <v>1175</v>
       </c>
       <c r="B127" t="s">
+        <v>375</v>
+      </c>
+      <c r="C127" t="s">
         <v>376</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>378</v>
       </c>
       <c r="E127" t="s">
         <v>9</v>
@@ -4686,13 +4683,13 @@
         <v>1201</v>
       </c>
       <c r="B128" t="s">
+        <v>378</v>
+      </c>
+      <c r="C128" t="s">
         <v>379</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>381</v>
       </c>
       <c r="E128" t="s">
         <v>9</v>
@@ -4706,13 +4703,13 @@
         <v>1211</v>
       </c>
       <c r="B129" t="s">
+        <v>381</v>
+      </c>
+      <c r="C129" t="s">
         <v>382</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>384</v>
       </c>
       <c r="E129" t="s">
         <v>9</v>
@@ -4726,13 +4723,13 @@
         <v>1226</v>
       </c>
       <c r="B130" t="s">
+        <v>384</v>
+      </c>
+      <c r="C130" t="s">
         <v>385</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>387</v>
       </c>
       <c r="E130" t="s">
         <v>9</v>
@@ -4746,13 +4743,13 @@
         <v>1268</v>
       </c>
       <c r="B131" t="s">
+        <v>387</v>
+      </c>
+      <c r="C131" t="s">
         <v>388</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="E131" t="s">
         <v>9</v>
@@ -4766,13 +4763,13 @@
         <v>1322</v>
       </c>
       <c r="B132" t="s">
+        <v>390</v>
+      </c>
+      <c r="C132" t="s">
         <v>391</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="E132" t="s">
         <v>9</v>
@@ -4786,13 +4783,13 @@
         <v>1356</v>
       </c>
       <c r="B133" t="s">
+        <v>393</v>
+      </c>
+      <c r="C133" t="s">
         <v>394</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>396</v>
       </c>
       <c r="E133" t="s">
         <v>9</v>
@@ -4806,13 +4803,13 @@
         <v>1347</v>
       </c>
       <c r="B134" t="s">
+        <v>396</v>
+      </c>
+      <c r="C134" t="s">
         <v>397</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" s="1" t="s">
         <v>398</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="E134" t="s">
         <v>9</v>
@@ -4826,13 +4823,13 @@
         <v>1582</v>
       </c>
       <c r="B135" t="s">
+        <v>399</v>
+      </c>
+      <c r="C135" t="s">
         <v>400</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>402</v>
       </c>
       <c r="E135" t="s">
         <v>9</v>
@@ -4846,13 +4843,13 @@
         <v>1556</v>
       </c>
       <c r="B136" t="s">
+        <v>402</v>
+      </c>
+      <c r="C136" t="s">
         <v>403</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="E136" t="s">
         <v>9</v>
@@ -4866,13 +4863,13 @@
         <v>1612</v>
       </c>
       <c r="B137" t="s">
+        <v>405</v>
+      </c>
+      <c r="C137" t="s">
         <v>406</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" s="1" t="s">
         <v>407</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>408</v>
       </c>
       <c r="E137" t="s">
         <v>9</v>
@@ -4886,13 +4883,13 @@
         <v>1631</v>
       </c>
       <c r="B138" t="s">
+        <v>408</v>
+      </c>
+      <c r="C138" t="s">
         <v>409</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" s="1" t="s">
         <v>410</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="E138" t="s">
         <v>9</v>
@@ -4906,13 +4903,13 @@
         <v>1670</v>
       </c>
       <c r="B139" t="s">
+        <v>411</v>
+      </c>
+      <c r="C139" t="s">
         <v>412</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" s="1" t="s">
         <v>413</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>414</v>
       </c>
       <c r="E139" t="s">
         <v>9</v>
@@ -4926,13 +4923,13 @@
         <v>1744</v>
       </c>
       <c r="B140" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C140" t="s">
         <v>29</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E140" t="s">
         <v>9</v>
@@ -4946,13 +4943,13 @@
         <v>1715</v>
       </c>
       <c r="B141" t="s">
+        <v>416</v>
+      </c>
+      <c r="C141" t="s">
         <v>417</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" s="1" t="s">
         <v>418</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>419</v>
       </c>
       <c r="E141" t="s">
         <v>9</v>
@@ -4966,13 +4963,13 @@
         <v>1733</v>
       </c>
       <c r="B142" t="s">
+        <v>419</v>
+      </c>
+      <c r="C142" t="s">
         <v>420</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" s="1" t="s">
         <v>421</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>422</v>
       </c>
       <c r="E142" t="s">
         <v>9</v>
@@ -4986,13 +4983,13 @@
         <v>1763</v>
       </c>
       <c r="B143" t="s">
+        <v>422</v>
+      </c>
+      <c r="C143" t="s">
         <v>423</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" s="1" t="s">
         <v>424</v>
-      </c>
-      <c r="D143" s="1" t="s">
-        <v>425</v>
       </c>
       <c r="E143" t="s">
         <v>9</v>
@@ -5006,13 +5003,13 @@
         <v>1883</v>
       </c>
       <c r="B144" t="s">
+        <v>425</v>
+      </c>
+      <c r="C144" t="s">
         <v>426</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" s="1" t="s">
         <v>427</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>428</v>
       </c>
       <c r="E144" t="s">
         <v>9</v>
@@ -5026,13 +5023,13 @@
         <v>1873</v>
       </c>
       <c r="B145" t="s">
+        <v>428</v>
+      </c>
+      <c r="C145" t="s">
         <v>429</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>431</v>
       </c>
       <c r="E145" t="s">
         <v>9</v>
@@ -5046,13 +5043,13 @@
         <v>1857</v>
       </c>
       <c r="B146" t="s">
+        <v>431</v>
+      </c>
+      <c r="C146" t="s">
         <v>432</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" s="1" t="s">
         <v>433</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>434</v>
       </c>
       <c r="E146" t="s">
         <v>9</v>
@@ -5066,13 +5063,13 @@
         <v>2009</v>
       </c>
       <c r="B147" t="s">
+        <v>434</v>
+      </c>
+      <c r="C147" t="s">
         <v>435</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" s="1" t="s">
         <v>436</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>437</v>
       </c>
       <c r="E147" t="s">
         <v>9</v>
@@ -5086,13 +5083,13 @@
         <v>2019</v>
       </c>
       <c r="B148" t="s">
+        <v>437</v>
+      </c>
+      <c r="C148" t="s">
         <v>438</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="E148" t="s">
         <v>9</v>
@@ -5106,13 +5103,13 @@
         <v>1978</v>
       </c>
       <c r="B149" t="s">
+        <v>440</v>
+      </c>
+      <c r="C149" t="s">
         <v>441</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" s="1" t="s">
         <v>442</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>443</v>
       </c>
       <c r="E149" t="s">
         <v>9</v>
@@ -5126,13 +5123,13 @@
         <v>2030</v>
       </c>
       <c r="B150" t="s">
+        <v>443</v>
+      </c>
+      <c r="C150" t="s">
         <v>444</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="E150" t="s">
         <v>9</v>
@@ -5146,13 +5143,13 @@
         <v>2040</v>
       </c>
       <c r="B151" t="s">
+        <v>446</v>
+      </c>
+      <c r="C151" t="s">
         <v>447</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" s="1" t="s">
         <v>448</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>449</v>
       </c>
       <c r="E151" t="s">
         <v>9</v>
@@ -5166,13 +5163,13 @@
         <v>2064</v>
       </c>
       <c r="B152" t="s">
+        <v>449</v>
+      </c>
+      <c r="C152" t="s">
         <v>450</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" s="1" t="s">
         <v>451</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>452</v>
       </c>
       <c r="E152" t="s">
         <v>9</v>
@@ -5186,13 +5183,13 @@
         <v>2169</v>
       </c>
       <c r="B153" t="s">
+        <v>452</v>
+      </c>
+      <c r="C153" t="s">
         <v>453</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" s="1" t="s">
         <v>454</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>455</v>
       </c>
       <c r="E153" t="s">
         <v>9</v>
@@ -5206,13 +5203,13 @@
         <v>2120</v>
       </c>
       <c r="B154" t="s">
+        <v>455</v>
+      </c>
+      <c r="C154" t="s">
         <v>456</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" s="1" t="s">
         <v>457</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>458</v>
       </c>
       <c r="E154" t="s">
         <v>9</v>
@@ -5226,13 +5223,13 @@
         <v>2118</v>
       </c>
       <c r="B155" t="s">
+        <v>458</v>
+      </c>
+      <c r="C155" t="s">
         <v>459</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" s="1" t="s">
         <v>460</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>461</v>
       </c>
       <c r="E155" t="s">
         <v>9</v>
@@ -5246,13 +5243,13 @@
         <v>2190</v>
       </c>
       <c r="B156" t="s">
+        <v>461</v>
+      </c>
+      <c r="C156" t="s">
         <v>462</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" s="1" t="s">
         <v>463</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>464</v>
       </c>
       <c r="E156" t="s">
         <v>9</v>
@@ -5266,13 +5263,13 @@
         <v>2243</v>
       </c>
       <c r="B157" t="s">
+        <v>464</v>
+      </c>
+      <c r="C157" t="s">
         <v>465</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="E157" t="s">
         <v>9</v>
@@ -5286,13 +5283,13 @@
         <v>2335</v>
       </c>
       <c r="B158" t="s">
+        <v>467</v>
+      </c>
+      <c r="C158" t="s">
         <v>468</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" s="1" t="s">
         <v>469</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>470</v>
       </c>
       <c r="E158" t="s">
         <v>9</v>
@@ -5306,13 +5303,13 @@
         <v>2294</v>
       </c>
       <c r="B159" t="s">
+        <v>470</v>
+      </c>
+      <c r="C159" t="s">
         <v>471</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" s="1" t="s">
         <v>472</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>473</v>
       </c>
       <c r="E159" t="s">
         <v>9</v>
@@ -5326,13 +5323,13 @@
         <v>2279</v>
       </c>
       <c r="B160" t="s">
+        <v>473</v>
+      </c>
+      <c r="C160" t="s">
         <v>474</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" s="1" t="s">
         <v>475</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>476</v>
       </c>
       <c r="E160" t="s">
         <v>9</v>
@@ -5346,13 +5343,13 @@
         <v>2370</v>
       </c>
       <c r="B161" t="s">
+        <v>476</v>
+      </c>
+      <c r="C161" t="s">
         <v>477</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" s="1" t="s">
         <v>478</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>479</v>
       </c>
       <c r="E161" t="s">
         <v>9</v>
@@ -5366,13 +5363,13 @@
         <v>2342</v>
       </c>
       <c r="B162" t="s">
+        <v>479</v>
+      </c>
+      <c r="C162" t="s">
         <v>480</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" s="1" t="s">
         <v>481</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="E162" t="s">
         <v>9</v>
@@ -5386,13 +5383,13 @@
         <v>2398</v>
       </c>
       <c r="B163" t="s">
+        <v>482</v>
+      </c>
+      <c r="C163" t="s">
         <v>483</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="E163" t="s">
         <v>9</v>
@@ -5406,13 +5403,13 @@
         <v>2454</v>
       </c>
       <c r="B164" t="s">
+        <v>485</v>
+      </c>
+      <c r="C164" t="s">
         <v>486</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>488</v>
       </c>
       <c r="E164" t="s">
         <v>9</v>
@@ -5426,13 +5423,13 @@
         <v>2466</v>
       </c>
       <c r="B165" t="s">
+        <v>488</v>
+      </c>
+      <c r="C165" t="s">
+        <v>471</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="C165" t="s">
-        <v>472</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="E165" t="s">
         <v>9</v>
@@ -5446,13 +5443,13 @@
         <v>2437</v>
       </c>
       <c r="B166" t="s">
+        <v>490</v>
+      </c>
+      <c r="C166" t="s">
         <v>491</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>493</v>
       </c>
       <c r="E166" t="s">
         <v>9</v>
@@ -5466,13 +5463,13 @@
         <v>2496</v>
       </c>
       <c r="B167" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C167" t="s">
         <v>56</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E167" t="s">
         <v>9</v>
@@ -5486,13 +5483,13 @@
         <v>2518</v>
       </c>
       <c r="B168" t="s">
+        <v>495</v>
+      </c>
+      <c r="C168" t="s">
         <v>496</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="E168" t="s">
         <v>9</v>
@@ -5506,13 +5503,13 @@
         <v>2534</v>
       </c>
       <c r="B169" t="s">
+        <v>498</v>
+      </c>
+      <c r="C169" t="s">
         <v>499</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="E169" t="s">
         <v>9</v>
@@ -5526,13 +5523,13 @@
         <v>2520</v>
       </c>
       <c r="B170" t="s">
+        <v>501</v>
+      </c>
+      <c r="C170" t="s">
         <v>502</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="E170" t="s">
         <v>9</v>
@@ -5546,13 +5543,13 @@
         <v>2529</v>
       </c>
       <c r="B171" t="s">
+        <v>504</v>
+      </c>
+      <c r="C171" t="s">
         <v>505</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" s="1" t="s">
         <v>506</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>507</v>
       </c>
       <c r="E171" t="s">
         <v>9</v>
@@ -5566,13 +5563,13 @@
         <v>2625</v>
       </c>
       <c r="B172" t="s">
+        <v>507</v>
+      </c>
+      <c r="C172" t="s">
         <v>508</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="E172" t="s">
         <v>9</v>
@@ -5586,13 +5583,13 @@
         <v>2514</v>
       </c>
       <c r="B173" t="s">
+        <v>510</v>
+      </c>
+      <c r="C173" t="s">
         <v>511</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" s="1" t="s">
         <v>512</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>513</v>
       </c>
       <c r="E173" t="s">
         <v>9</v>
@@ -5606,13 +5603,13 @@
         <v>2552</v>
       </c>
       <c r="B174" t="s">
+        <v>513</v>
+      </c>
+      <c r="C174" t="s">
         <v>514</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" s="1" t="s">
         <v>515</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>516</v>
       </c>
       <c r="E174" t="s">
         <v>9</v>
@@ -5626,13 +5623,13 @@
         <v>2651</v>
       </c>
       <c r="B175" t="s">
+        <v>516</v>
+      </c>
+      <c r="C175" t="s">
         <v>517</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="E175" t="s">
         <v>9</v>
@@ -5646,13 +5643,13 @@
         <v>2602</v>
       </c>
       <c r="B176" t="s">
+        <v>519</v>
+      </c>
+      <c r="C176" t="s">
         <v>520</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="E176" t="s">
         <v>9</v>
@@ -5666,13 +5663,13 @@
         <v>2627</v>
       </c>
       <c r="B177" t="s">
+        <v>522</v>
+      </c>
+      <c r="C177" t="s">
         <v>523</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" s="1" t="s">
         <v>524</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>525</v>
       </c>
       <c r="E177" t="s">
         <v>9</v>
@@ -5686,13 +5683,13 @@
         <v>2788</v>
       </c>
       <c r="B178" t="s">
+        <v>525</v>
+      </c>
+      <c r="C178" t="s">
         <v>526</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="E178" t="s">
         <v>9</v>
@@ -5706,13 +5703,13 @@
         <v>2923</v>
       </c>
       <c r="B179" t="s">
+        <v>528</v>
+      </c>
+      <c r="C179" t="s">
         <v>529</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="E179" t="s">
         <v>9</v>
@@ -5726,13 +5723,13 @@
         <v>2934</v>
       </c>
       <c r="B180" t="s">
+        <v>531</v>
+      </c>
+      <c r="C180" t="s">
         <v>532</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" s="1" t="s">
         <v>533</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>534</v>
       </c>
       <c r="E180" t="s">
         <v>9</v>
@@ -5746,13 +5743,13 @@
         <v>3071</v>
       </c>
       <c r="B181" t="s">
+        <v>534</v>
+      </c>
+      <c r="C181" t="s">
         <v>535</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="E181" t="s">
         <v>9</v>
@@ -5766,13 +5763,13 @@
         <v>3194</v>
       </c>
       <c r="B182" t="s">
+        <v>537</v>
+      </c>
+      <c r="C182" t="s">
         <v>538</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="E182" t="s">
         <v>9</v>
@@ -5786,13 +5783,13 @@
         <v>3123</v>
       </c>
       <c r="B183" t="s">
+        <v>540</v>
+      </c>
+      <c r="C183" t="s">
         <v>541</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" s="1" t="s">
         <v>542</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>543</v>
       </c>
       <c r="E183" t="s">
         <v>9</v>
@@ -5806,13 +5803,13 @@
         <v>3350</v>
       </c>
       <c r="B184" t="s">
+        <v>543</v>
+      </c>
+      <c r="C184" t="s">
         <v>544</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="E184" t="s">
         <v>9</v>
@@ -5826,13 +5823,13 @@
         <v>3341</v>
       </c>
       <c r="B185" t="s">
+        <v>546</v>
+      </c>
+      <c r="C185" t="s">
         <v>547</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>549</v>
       </c>
       <c r="E185" t="s">
         <v>9</v>
@@ -5846,13 +5843,13 @@
         <v>3498</v>
       </c>
       <c r="B186" t="s">
+        <v>549</v>
+      </c>
+      <c r="C186" t="s">
         <v>550</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="E186" t="s">
         <v>9</v>
@@ -5866,13 +5863,13 @@
         <v>3414</v>
       </c>
       <c r="B187" t="s">
+        <v>552</v>
+      </c>
+      <c r="C187" t="s">
         <v>553</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="E187" t="s">
         <v>9</v>
@@ -5886,13 +5883,13 @@
         <v>3394</v>
       </c>
       <c r="B188" t="s">
+        <v>555</v>
+      </c>
+      <c r="C188" t="s">
         <v>556</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" s="1" t="s">
         <v>557</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>558</v>
       </c>
       <c r="E188" t="s">
         <v>9</v>
@@ -5906,13 +5903,13 @@
         <v>3640</v>
       </c>
       <c r="B189" t="s">
+        <v>558</v>
+      </c>
+      <c r="C189" t="s">
         <v>559</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="E189" t="s">
         <v>9</v>
@@ -5926,13 +5923,13 @@
         <v>3817</v>
       </c>
       <c r="B190" t="s">
+        <v>561</v>
+      </c>
+      <c r="C190" t="s">
         <v>562</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="E190" t="s">
         <v>9</v>
@@ -5946,13 +5943,13 @@
         <v>3888</v>
       </c>
       <c r="B191" t="s">
+        <v>564</v>
+      </c>
+      <c r="C191" t="s">
         <v>565</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="E191" t="s">
         <v>9</v>
@@ -5966,13 +5963,13 @@
         <v>4002</v>
       </c>
       <c r="B192" t="s">
+        <v>567</v>
+      </c>
+      <c r="C192" t="s">
         <v>568</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="E192" t="s">
         <v>9</v>
@@ -5986,13 +5983,13 @@
         <v>3776</v>
       </c>
       <c r="B193" t="s">
+        <v>570</v>
+      </c>
+      <c r="C193" t="s">
         <v>571</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="E193" t="s">
         <v>9</v>
@@ -6006,13 +6003,13 @@
         <v>3978</v>
       </c>
       <c r="B194" t="s">
+        <v>573</v>
+      </c>
+      <c r="C194" t="s">
         <v>574</v>
       </c>
-      <c r="C194" t="s">
+      <c r="D194" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>576</v>
       </c>
       <c r="E194" t="s">
         <v>9</v>
@@ -6026,13 +6023,13 @@
         <v>4096</v>
       </c>
       <c r="B195" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C195" t="s">
         <v>29</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E195" t="s">
         <v>9</v>
@@ -6046,13 +6043,13 @@
         <v>4159</v>
       </c>
       <c r="B196" t="s">
+        <v>578</v>
+      </c>
+      <c r="C196" t="s">
         <v>579</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="E196" t="s">
         <v>9</v>
@@ -6066,13 +6063,13 @@
         <v>4191</v>
       </c>
       <c r="B197" t="s">
+        <v>581</v>
+      </c>
+      <c r="C197" t="s">
         <v>582</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="E197" t="s">
         <v>9</v>
@@ -6086,13 +6083,13 @@
         <v>4394</v>
       </c>
       <c r="B198" t="s">
+        <v>584</v>
+      </c>
+      <c r="C198" t="s">
         <v>585</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="E198" t="s">
         <v>9</v>
@@ -6106,13 +6103,13 @@
         <v>4472</v>
       </c>
       <c r="B199" t="s">
+        <v>587</v>
+      </c>
+      <c r="C199" t="s">
         <v>588</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>590</v>
       </c>
       <c r="E199" t="s">
         <v>9</v>
@@ -6126,13 +6123,13 @@
         <v>4905</v>
       </c>
       <c r="B200" t="s">
+        <v>590</v>
+      </c>
+      <c r="C200" t="s">
         <v>591</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>593</v>
       </c>
       <c r="E200" t="s">
         <v>9</v>
@@ -6146,13 +6143,13 @@
         <v>4893</v>
       </c>
       <c r="B201" t="s">
+        <v>593</v>
+      </c>
+      <c r="C201" t="s">
         <v>594</v>
       </c>
-      <c r="C201" t="s">
+      <c r="D201" s="1" t="s">
         <v>595</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>596</v>
       </c>
       <c r="E201" t="s">
         <v>9</v>
